--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H2">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>312.7726045549346</v>
+        <v>371.3810665891511</v>
       </c>
       <c r="R2">
-        <v>312.7726045549346</v>
+        <v>3342.42959930236</v>
       </c>
       <c r="S2">
-        <v>0.0109985310338356</v>
+        <v>0.0120401441908638</v>
       </c>
       <c r="T2">
-        <v>0.0109985310338356</v>
+        <v>0.01204014419086379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H3">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>322.0480394975079</v>
+        <v>358.4589684603337</v>
       </c>
       <c r="R3">
-        <v>322.0480394975079</v>
+        <v>3226.130716143003</v>
       </c>
       <c r="S3">
-        <v>0.01132469821594345</v>
+        <v>0.01162121081294991</v>
       </c>
       <c r="T3">
-        <v>0.01132469821594345</v>
+        <v>0.01162121081294991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H4">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>177.3413669375902</v>
+        <v>229.482354137574</v>
       </c>
       <c r="R4">
-        <v>177.3413669375902</v>
+        <v>2065.341187238166</v>
       </c>
       <c r="S4">
-        <v>0.006236142486396479</v>
+        <v>0.007439799391097913</v>
       </c>
       <c r="T4">
-        <v>0.006236142486396479</v>
+        <v>0.007439799391097911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H5">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>61.04304337378304</v>
+        <v>72.54335167152135</v>
       </c>
       <c r="R5">
-        <v>61.04304337378304</v>
+        <v>652.890165043692</v>
       </c>
       <c r="S5">
-        <v>0.002146555667500622</v>
+        <v>0.002351849603523036</v>
       </c>
       <c r="T5">
-        <v>0.002146555667500622</v>
+        <v>0.002351849603523035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H6">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>9485.500837163969</v>
+        <v>10300.76560178481</v>
       </c>
       <c r="R6">
-        <v>9485.500837163969</v>
+        <v>92706.89041606328</v>
       </c>
       <c r="S6">
-        <v>0.3335540703044465</v>
+        <v>0.3339499890525706</v>
       </c>
       <c r="T6">
-        <v>0.3335540703044465</v>
+        <v>0.3339499890525705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H7">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>9766.798318565943</v>
+        <v>9942.3534050331</v>
       </c>
       <c r="R7">
-        <v>9766.798318565943</v>
+        <v>89481.18064529789</v>
       </c>
       <c r="S7">
-        <v>0.3434457904675403</v>
+        <v>0.3223302945746375</v>
       </c>
       <c r="T7">
-        <v>0.3434457904675403</v>
+        <v>0.3223302945746375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H8">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>5378.257750367844</v>
+        <v>6365.009292011052</v>
       </c>
       <c r="R8">
-        <v>5378.257750367844</v>
+        <v>57285.08362809947</v>
       </c>
       <c r="S8">
-        <v>0.1891244115179471</v>
+        <v>0.2063530872907446</v>
       </c>
       <c r="T8">
-        <v>0.1891244115179471</v>
+        <v>0.2063530872907446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H9">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>1851.261365582154</v>
+        <v>2012.089814914691</v>
       </c>
       <c r="R9">
-        <v>1851.261365582154</v>
+        <v>18108.80833423222</v>
       </c>
       <c r="S9">
-        <v>0.0650989098296172</v>
+        <v>0.06523178932904981</v>
       </c>
       <c r="T9">
-        <v>0.0650989098296172</v>
+        <v>0.0652317893290498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H10">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>1.908404330777113</v>
+        <v>2.670216743724444</v>
       </c>
       <c r="R10">
-        <v>1.908404330777113</v>
+        <v>24.03195069352</v>
       </c>
       <c r="S10">
-        <v>6.710832071442425E-05</v>
+        <v>8.656821121919917E-05</v>
       </c>
       <c r="T10">
-        <v>6.710832071442425E-05</v>
+        <v>8.656821121919916E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H11">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>1.964999057925408</v>
+        <v>2.577307314860666</v>
       </c>
       <c r="R11">
-        <v>1.964999057925408</v>
+        <v>23.195765833746</v>
       </c>
       <c r="S11">
-        <v>6.909845301446288E-05</v>
+        <v>8.355609503760552E-05</v>
       </c>
       <c r="T11">
-        <v>6.909845301446288E-05</v>
+        <v>8.355609503760552E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H12">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>1.082060985396141</v>
+        <v>1.649970016068</v>
       </c>
       <c r="R12">
-        <v>1.082060985396141</v>
+        <v>14.849730144612</v>
       </c>
       <c r="S12">
-        <v>3.805026768670181E-05</v>
+        <v>5.349189469057575E-05</v>
       </c>
       <c r="T12">
-        <v>3.805026768670181E-05</v>
+        <v>5.349189469057574E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H13">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>0.3724584782740518</v>
+        <v>0.5215841347493333</v>
       </c>
       <c r="R13">
-        <v>0.3724584782740518</v>
+        <v>4.694257212744</v>
       </c>
       <c r="S13">
-        <v>1.309736234073801E-05</v>
+        <v>1.690971553214974E-05</v>
       </c>
       <c r="T13">
-        <v>1.309736234073801E-05</v>
+        <v>1.690971553214974E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H14">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>385.8842005172453</v>
+        <v>426.7591230198489</v>
       </c>
       <c r="R14">
-        <v>385.8842005172453</v>
+        <v>3840.83210717864</v>
       </c>
       <c r="S14">
-        <v>0.01356947281522647</v>
+        <v>0.01383549630872771</v>
       </c>
       <c r="T14">
-        <v>0.01356947281522647</v>
+        <v>0.01383549630872771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H15">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>397.3277980227166</v>
+        <v>411.9101612359913</v>
       </c>
       <c r="R15">
-        <v>397.3277980227166</v>
+        <v>3707.191451123922</v>
       </c>
       <c r="S15">
-        <v>0.01397188261860982</v>
+        <v>0.01335409416670615</v>
       </c>
       <c r="T15">
-        <v>0.01397188261860982</v>
+        <v>0.01335409416670615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H16">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>218.7954782572013</v>
+        <v>263.7013488590759</v>
       </c>
       <c r="R16">
-        <v>218.7954782572013</v>
+        <v>2373.312139731684</v>
       </c>
       <c r="S16">
-        <v>0.007693860723828428</v>
+        <v>0.00854917643688328</v>
       </c>
       <c r="T16">
-        <v>0.007693860723828428</v>
+        <v>0.008549176436883278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H17">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>75.31204986111423</v>
+        <v>83.36056930577867</v>
       </c>
       <c r="R17">
-        <v>75.31204986111423</v>
+        <v>750.245123752008</v>
       </c>
       <c r="S17">
-        <v>0.002648319915351649</v>
+        <v>0.002702542925766344</v>
       </c>
       <c r="T17">
-        <v>0.002648319915351649</v>
+        <v>0.002702542925766344</v>
       </c>
     </row>
   </sheetData>
